--- a/aufgabe_1/produkte.xlsx
+++ b/aufgabe_1/produkte.xlsx
@@ -5,30 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdemy-my.sharepoint.com/personal/arina_misakyan_teilnehmer_cdemy_de/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelKaiser\Documents\Projects\i13_db\aufgabe1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBF3877-EB38-411D-BC7B-DB92A75D06C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC8491-2E4F-481E-9B12-CB2DB13E2A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{695C2E1D-25B9-408B-82D4-EACC4204C663}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="produkte" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -37,124 +25,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
-  <si>
-    <t>Produktnummer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>P01</t>
   </si>
   <si>
+    <t>Laptop Pro</t>
+  </si>
+  <si>
+    <t>TechCorp</t>
+  </si>
+  <si>
     <t>P02</t>
   </si>
   <si>
+    <t>Wireless Maus</t>
+  </si>
+  <si>
+    <t>Logi</t>
+  </si>
+  <si>
     <t>P03</t>
   </si>
   <si>
+    <t>USB-C Hub</t>
+  </si>
+  <si>
+    <t>ConnectIt</t>
+  </si>
+  <si>
     <t>P04</t>
   </si>
   <si>
+    <t>Gaming PC</t>
+  </si>
+  <si>
+    <t>GamerX</t>
+  </si>
+  <si>
     <t>P05</t>
   </si>
   <si>
+    <t>Mechanische Tastatur</t>
+  </si>
+  <si>
     <t>P06</t>
   </si>
   <si>
+    <t>Monitor 27 Zoll</t>
+  </si>
+  <si>
+    <t>ViewSonic</t>
+  </si>
+  <si>
     <t>P07</t>
   </si>
   <si>
+    <t>Drucker</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
     <t>P08</t>
   </si>
   <si>
+    <t>Druckerpatronen</t>
+  </si>
+  <si>
     <t>P09</t>
   </si>
   <si>
+    <t>Webcam HD</t>
+  </si>
+  <si>
     <t>P10</t>
   </si>
   <si>
+    <t>Externes Mikrofon</t>
+  </si>
+  <si>
+    <t>AudioPro</t>
+  </si>
+  <si>
     <t>P11</t>
   </si>
   <si>
+    <t>4K Monitor</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
     <t>P12</t>
   </si>
   <si>
-    <t>Produktbezeichnung</t>
-  </si>
-  <si>
-    <t>Laptop Pro</t>
-  </si>
-  <si>
-    <t>Wireless Maus</t>
-  </si>
-  <si>
-    <t>USB-C Hub</t>
-  </si>
-  <si>
-    <t>Gaming PC</t>
-  </si>
-  <si>
-    <t>Mechanische Tastatur</t>
-  </si>
-  <si>
-    <t>Monitor 27 Zoll</t>
-  </si>
-  <si>
-    <t>Drucker</t>
-  </si>
-  <si>
-    <t>Druckerpatronen</t>
-  </si>
-  <si>
-    <t>Webcam HD</t>
-  </si>
-  <si>
-    <t>Externes Mikrofon</t>
-  </si>
-  <si>
-    <t>4K Monitor</t>
-  </si>
-  <si>
     <t>Grafikkarte RTX 4070</t>
   </si>
   <si>
-    <t>Einzelpreis</t>
-  </si>
-  <si>
-    <t>Hersteller</t>
-  </si>
-  <si>
-    <t>TechCorp</t>
-  </si>
-  <si>
-    <t>Logi</t>
-  </si>
-  <si>
-    <t>ConnectIt</t>
-  </si>
-  <si>
-    <t>GamerX</t>
-  </si>
-  <si>
-    <t>ViewSonic</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>AudioPro</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
     <t>Nvidia</t>
+  </si>
+  <si>
+    <t>produktnummer</t>
+  </si>
+  <si>
+    <t>bezeichnung</t>
+  </si>
+  <si>
+    <t>hersteller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,21 +148,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,15 +464,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,18 +674,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A883A40-44A0-4504-B713-FCC849B71253}" name="Tabelle1" displayName="Tabelle1" ref="A1:D19" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D171F3C-0FAC-4362-9E6D-6366500926F3}" name="Produktnummer"/>
-    <tableColumn id="2" xr3:uid="{AC0ED250-B6C6-4DCE-A78B-E72A7030F96F}" name="Produktbezeichnung"/>
-    <tableColumn id="3" xr3:uid="{2F6EEF64-3D7C-4B91-9792-FC9A36104007}" name="Einzelpreis"/>
-    <tableColumn id="4" xr3:uid="{C1796CC7-C1D2-4CDF-801A-54B4190AC92E}" name="Hersteller"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,292 +972,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F16ECF-7326-43DA-95E0-E5C10210B4B5}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>1200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>25.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>2500</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>350</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
-      </c>
-      <c r="C8">
-        <v>180</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>2550</v>
-      </c>
-      <c r="D13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
-        <v>750</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17">
-        <v>159.99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>1250</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>185</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>